--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvz16\salon_agenda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89AB896-E8CA-4BA3-B9D4-6B6590F615FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991BC675-4631-4C89-B216-578F16A89993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7156CD1D-D3BB-44C2-9761-0A4246B0D336}"/>
   </bookViews>
@@ -489,57 +489,57 @@
   <dimension ref="R7:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="7" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R24" t="s">
         <v>0</v>
       </c>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvz16\salon_agenda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991BC675-4631-4C89-B216-578F16A89993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279A1339-4059-4045-8426-9645E0090527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7156CD1D-D3BB-44C2-9761-0A4246B0D336}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7156CD1D-D3BB-44C2-9761-0A4246B0D336}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>http://127.0.0.1:8000/reservar/</t>
   </si>
@@ -66,19 +66,187 @@
   </si>
   <si>
     <t>pip install django</t>
+  </si>
+  <si>
+    <t>cd "C:\Users\jvz16\salon_agenda"</t>
+  </si>
+  <si>
+    <t># si tu carpeta es .venv</t>
+  </si>
+  <si>
+    <t>.\.venv\Scripts\Activate.ps1</t>
+  </si>
+  <si>
+    <t># si tu carpeta es venv</t>
+  </si>
+  <si>
+    <t>.\venv\Scripts\Activate.ps1</t>
+  </si>
+  <si>
+    <t>py -m venv .venv</t>
+  </si>
+  <si>
+    <t>python -m pip install --upgrade pip</t>
+  </si>
+  <si>
+    <t>pip install -r requirements.txt</t>
+  </si>
+  <si>
+    <t># si no tienes requirements.txt, instala directo:</t>
+  </si>
+  <si>
+    <t># pip install "Django&gt;=4.2,&lt;5"</t>
+  </si>
+  <si>
+    <t>pip install Pillow</t>
+  </si>
+  <si>
+    <t>Producción (Render)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Landing / Reservar: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>https://salon-nadira.onrender.com/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Servicios: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>https://salon-nadira.onrender.com/servicios/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Testimonios: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>https://salon-nadira.onrender.com/testimonios/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Admin: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>https://salon-nadira.onrender.com/admin/</t>
+    </r>
+  </si>
+  <si>
+    <t>Local (tu PC)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Landing / Reservar: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>http://127.0.0.1:8000/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Servicios: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>http://127.0.0.1:8000/servicios/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Testimonios: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>http://127.0.0.1:8000/testimonios/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Admin: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>http://127.0.0.1:8000/admin/</t>
+    </r>
+  </si>
+  <si>
+    <t>jvz</t>
+  </si>
+  <si>
+    <t>jvz123</t>
+  </si>
+  <si>
+    <t>Clave</t>
+  </si>
+  <si>
+    <t>Usuario</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -101,8 +269,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -132,8 +306,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>515419</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>172198</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>148385</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -486,62 +660,211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CD43CF-C200-474D-8D07-6F8BDE2B25EE}">
-  <dimension ref="R7:R24"/>
+  <dimension ref="R7:Y52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W24" sqref="W24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="X52" sqref="X52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="7" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="18:24">
       <c r="R7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="X7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="18:24">
       <c r="R8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="X8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="18:24">
       <c r="R9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="X9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="18:24">
       <c r="R10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="18:24">
       <c r="R11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="X11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="18:24">
       <c r="R12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="X12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="18:24">
+      <c r="X14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="18:24">
+      <c r="X15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="18:24">
+      <c r="X17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="18:24">
       <c r="R18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="X18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="18:24">
+      <c r="X19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="18:24">
       <c r="R20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="X20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="18:24">
       <c r="R22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="X22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="18:24">
       <c r="R24" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="18:24">
+      <c r="X25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="18:24">
+      <c r="X26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="18:24" ht="31.5">
+      <c r="X28" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="18:24">
+      <c r="X29" s="2"/>
+    </row>
+    <row r="30" spans="18:24">
+      <c r="X30" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="18:24">
+      <c r="X31" s="2"/>
+    </row>
+    <row r="32" spans="18:24">
+      <c r="X32" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="24:24">
+      <c r="X33" s="2"/>
+    </row>
+    <row r="34" spans="24:24">
+      <c r="X34" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="24:24">
+      <c r="X35" s="2"/>
+    </row>
+    <row r="36" spans="24:24">
+      <c r="X36" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="24:24" ht="31.5">
+      <c r="X38" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="24:24">
+      <c r="X39" s="2"/>
+    </row>
+    <row r="40" spans="24:24">
+      <c r="X40" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="24:24">
+      <c r="X41" s="2"/>
+    </row>
+    <row r="42" spans="24:24">
+      <c r="X42" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="24:24">
+      <c r="X43" s="2"/>
+    </row>
+    <row r="44" spans="24:24">
+      <c r="X44" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="24:24">
+      <c r="X45" s="2"/>
+    </row>
+    <row r="46" spans="24:24">
+      <c r="X46" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="24:25">
+      <c r="X49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="24:25">
+      <c r="X51" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="24:25">
+      <c r="X52" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvz16\salon_agenda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279A1339-4059-4045-8426-9645E0090527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D3EA29-9137-4BAD-8C17-6247E24D992E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7156CD1D-D3BB-44C2-9761-0A4246B0D336}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>http://127.0.0.1:8000/reservar/</t>
   </si>
@@ -221,6 +221,30 @@
   </si>
   <si>
     <t>Usuario</t>
+  </si>
+  <si>
+    <t>python manage.py changepassword jvz16</t>
+  </si>
+  <si>
+    <t>python manage.py shell</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; from django.contrib.auth.models import User</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; User.objects.all()</t>
+  </si>
+  <si>
+    <t>git status</t>
+  </si>
+  <si>
+    <t>git add -A</t>
+  </si>
+  <si>
+    <t>git commit -m "Actualiza landing, servicios y testimonios"</t>
+  </si>
+  <si>
+    <t>git push origin main   # o la rama que usa Render</t>
   </si>
 </sst>
 </file>
@@ -660,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CD43CF-C200-474D-8D07-6F8BDE2B25EE}">
-  <dimension ref="R7:Y52"/>
+  <dimension ref="R7:Y63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="X52" sqref="X52"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="X44" sqref="X44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -867,6 +891,51 @@
         <v>32</v>
       </c>
     </row>
+    <row r="53" spans="24:25">
+      <c r="X53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="24:25">
+      <c r="X54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="24:25">
+      <c r="X55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="24:25">
+      <c r="X56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="24:25">
+      <c r="X58" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="24:25">
+      <c r="X59" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="24:25">
+      <c r="X60" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="24:25">
+      <c r="X61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="24:25">
+      <c r="X63" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvz16\salon_agenda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D3EA29-9137-4BAD-8C17-6247E24D992E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040DCCA7-5952-4A1F-90D5-8DB7B98D6FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7156CD1D-D3BB-44C2-9761-0A4246B0D336}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>http://127.0.0.1:8000/reservar/</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>git push origin main   # o la rama que usa Render</t>
+  </si>
+  <si>
+    <t>https://TU-SERVICIO.onrender.com/</t>
   </si>
 </sst>
 </file>
@@ -686,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CD43CF-C200-474D-8D07-6F8BDE2B25EE}">
   <dimension ref="R7:Y63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="X44" sqref="X44"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S64" sqref="S64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -802,7 +805,9 @@
       </c>
     </row>
     <row r="29" spans="18:24">
-      <c r="X29" s="2"/>
+      <c r="X29" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="30" spans="18:24">
       <c r="X30" s="2" t="s">

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvz16\salon_agenda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040DCCA7-5952-4A1F-90D5-8DB7B98D6FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C075AF8-425E-4E7B-9A36-682BBF17942C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7156CD1D-D3BB-44C2-9761-0A4246B0D336}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7156CD1D-D3BB-44C2-9761-0A4246B0D336}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -689,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CD43CF-C200-474D-8D07-6F8BDE2B25EE}">
   <dimension ref="R7:Y63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S64" sqref="S64"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R64" sqref="R64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvz16\salon_agenda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvz16\Proyectos\salon_agenda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C075AF8-425E-4E7B-9A36-682BBF17942C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0D00D7-DE65-42F5-9249-81BBF120540D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7156CD1D-D3BB-44C2-9761-0A4246B0D336}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{7156CD1D-D3BB-44C2-9761-0A4246B0D336}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
   <si>
     <t>http://127.0.0.1:8000/reservar/</t>
   </si>
@@ -62,25 +62,13 @@
     <t>pip install twilio</t>
   </si>
   <si>
-    <t>cd C:\Users\jvz16\salon_agenda\</t>
-  </si>
-  <si>
     <t>pip install django</t>
   </si>
   <si>
-    <t>cd "C:\Users\jvz16\salon_agenda"</t>
-  </si>
-  <si>
     <t># si tu carpeta es .venv</t>
   </si>
   <si>
     <t>.\.venv\Scripts\Activate.ps1</t>
-  </si>
-  <si>
-    <t># si tu carpeta es venv</t>
-  </si>
-  <si>
-    <t>.\venv\Scripts\Activate.ps1</t>
   </si>
   <si>
     <t>py -m venv .venv</t>
@@ -248,6 +236,105 @@
   </si>
   <si>
     <t>https://TU-SERVICIO.onrender.com/</t>
+  </si>
+  <si>
+    <t>Cómo arrancar:</t>
+  </si>
+  <si>
+    <t>1. python -m venv .venv</t>
+  </si>
+  <si>
+    <t>2. source .venv/bin/activate   (Windows: .venv\Scripts\activate)</t>
+  </si>
+  <si>
+    <t>3. pip install -r requirements.txt</t>
+  </si>
+  <si>
+    <t>4. python manage.py migrate</t>
+  </si>
+  <si>
+    <t>5. python manage.py createsuperuser   (crear admin)</t>
+  </si>
+  <si>
+    <t>6. python manage.py runserver</t>
+  </si>
+  <si>
+    <t>cd "C:\Users\jvz16\ordero"</t>
+  </si>
+  <si>
+    <t>python -m venv .venv</t>
+  </si>
+  <si>
+    <t>.venv\Scripts\activate</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/</t>
+  </si>
+  <si>
+    <t>Setup: http://127.0.0.1:8000/setup/</t>
+  </si>
+  <si>
+    <t>Salón: http://127.0.0.1:8000/orders/floor/</t>
+  </si>
+  <si>
+    <t>Menú: http://127.0.0.1:8000/menu/editor/</t>
+  </si>
+  <si>
+    <t>Cocina: http://127.0.0.1:8000/kitchen/board/</t>
+  </si>
+  <si>
+    <t>Resumen: http://127.0.0.1:8000/reports/daily/</t>
+  </si>
+  <si>
+    <t>Admin: http://127.0.0.1:8000/admin/</t>
+  </si>
+  <si>
+    <t>Issue con sillas</t>
+  </si>
+  <si>
+    <t>No se muestra resumen despues de haber cerrado mesas</t>
+  </si>
+  <si>
+    <t>Disposicion geografica de mesas/sillas</t>
+  </si>
+  <si>
+    <t>Diferentes permisos en la app (dueño vs salonero vs cocina) - solo dueño edita menu</t>
+  </si>
+  <si>
+    <t>Asociar nombre de persona a ticket</t>
+  </si>
+  <si>
+    <t>Estado (emoji) de la mesa al lado de la mesa</t>
+  </si>
+  <si>
+    <t>Panel desarrollador: yo - administro restaurantes asociados</t>
+  </si>
+  <si>
+    <t>Panel editor: dueño rest - edita menu, agrega saloneros, ve resultados</t>
+  </si>
+  <si>
+    <t>Panel usuario: salones y cocina</t>
+  </si>
+  <si>
+    <t>cd "C:\Users\jvz16\Proyectos\salon_agenda"</t>
+  </si>
+  <si>
+    <t>&amp; "C:\Users\jvz16\anaconda3\python.exe" -m venv .venv</t>
+  </si>
+  <si>
+    <t>cd C:\Users\jvz16\Proyectos\salon_agenda</t>
+  </si>
+  <si>
+    <t>Remove-Item Env:DATABASE_URL -ErrorAction SilentlyContinue</t>
+  </si>
+  <si>
+    <t>$env:DATABASE_URL</t>
+  </si>
+  <si>
+    <t>python -m pip install -r requirements.txt</t>
+  </si>
+  <si>
+    <t>python -m pip install Pillow</t>
   </si>
 </sst>
 </file>
@@ -687,192 +774,289 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CD43CF-C200-474D-8D07-6F8BDE2B25EE}">
-  <dimension ref="R7:Y63"/>
+  <dimension ref="R2:AE77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R64" sqref="R64"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="7" spans="18:24">
-      <c r="R7" t="s">
-        <v>8</v>
-      </c>
+    <row r="2" spans="18:31">
+      <c r="X2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="18:31">
+      <c r="X3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="18:31">
+      <c r="X4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="18:31">
+      <c r="X5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="18:31">
+      <c r="X6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="18:31">
       <c r="X7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="18:24">
+        <v>72</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="18:31">
       <c r="R8" t="s">
         <v>1</v>
       </c>
       <c r="X8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="18:24">
+        <v>66</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="18:31">
       <c r="R9" t="s">
+        <v>8</v>
+      </c>
+      <c r="X9" t="s">
         <v>9</v>
       </c>
-      <c r="X9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="18:24">
+      <c r="AE9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="18:31">
       <c r="R10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="18:24">
+      <c r="X10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="18:31">
       <c r="R11" t="s">
         <v>3</v>
       </c>
       <c r="X11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="18:24">
+        <v>67</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="18:31">
       <c r="R12" t="s">
         <v>7</v>
       </c>
-      <c r="X12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="18:24">
+      <c r="AE12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="18:31">
+      <c r="AE13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="18:31">
       <c r="X14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="18:24">
-      <c r="X15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="18:31">
+      <c r="AE15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="18:31">
+      <c r="AE16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="18:31">
+      <c r="X17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="18:24">
-      <c r="X17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="18:24">
+    <row r="18" spans="18:31">
       <c r="R18" t="s">
         <v>4</v>
       </c>
       <c r="X18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="18:24">
+        <v>13</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="18:31">
       <c r="X19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="18:24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="18:31">
       <c r="R20" t="s">
         <v>5</v>
       </c>
       <c r="X20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="18:24">
+        <v>15</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="18:31">
       <c r="R22" t="s">
         <v>6</v>
       </c>
       <c r="X22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="18:24">
+        <v>16</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="18:31">
       <c r="R24" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="18:24">
+      <c r="AE24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="18:31">
       <c r="X25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="18:24">
+    <row r="26" spans="18:31">
       <c r="X26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="18:24" ht="31.5">
+      <c r="AE26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="18:31" ht="31.2">
       <c r="X28" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="18:31">
+      <c r="X29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="18:31">
+      <c r="X30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="18:31">
+      <c r="X31" s="2"/>
+      <c r="AE31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="18:31">
+      <c r="X32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="24:31">
+      <c r="X33" s="2"/>
+      <c r="AE33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="24:31">
+      <c r="X34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="24:31">
+      <c r="X35" s="2"/>
+      <c r="AE35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="24:31">
+      <c r="X36" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="18:24">
-      <c r="X29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="18:24">
-      <c r="X30" s="2" t="s">
+    <row r="37" spans="24:31">
+      <c r="AE37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="24:31" ht="31.2">
+      <c r="X38" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="18:24">
-      <c r="X31" s="2"/>
-    </row>
-    <row r="32" spans="18:24">
-      <c r="X32" s="2" t="s">
+      <c r="AE38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="24:31">
+      <c r="X39" s="2"/>
+      <c r="AE39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="24:31">
+      <c r="X40" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="24:24">
-      <c r="X33" s="2"/>
-    </row>
-    <row r="34" spans="24:24">
-      <c r="X34" s="2" t="s">
+    <row r="41" spans="24:31">
+      <c r="X41" s="2"/>
+    </row>
+    <row r="42" spans="24:31">
+      <c r="X42" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="24:24">
-      <c r="X35" s="2"/>
-    </row>
-    <row r="36" spans="24:24">
-      <c r="X36" s="2" t="s">
+    <row r="43" spans="24:31">
+      <c r="X43" s="2"/>
+    </row>
+    <row r="44" spans="24:31">
+      <c r="X44" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="24:24" ht="31.5">
-      <c r="X38" s="1" t="s">
+    <row r="45" spans="24:31">
+      <c r="X45" s="2"/>
+    </row>
+    <row r="46" spans="24:31">
+      <c r="X46" s="2" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="24:24">
-      <c r="X39" s="2"/>
-    </row>
-    <row r="40" spans="24:24">
-      <c r="X40" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="24:24">
-      <c r="X41" s="2"/>
-    </row>
-    <row r="42" spans="24:24">
-      <c r="X42" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="24:24">
-      <c r="X43" s="2"/>
-    </row>
-    <row r="44" spans="24:24">
-      <c r="X44" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="24:24">
-      <c r="X45" s="2"/>
-    </row>
-    <row r="46" spans="24:24">
-      <c r="X46" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="49" spans="24:25">
@@ -882,63 +1066,98 @@
     </row>
     <row r="51" spans="24:25">
       <c r="X51" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Y51" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="24:25">
       <c r="X52" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Y52" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="24:25">
       <c r="X53" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="24:25">
       <c r="X54" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="24:25">
       <c r="X55" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="24:25">
       <c r="X56" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="24:25">
       <c r="X58" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="24:25">
       <c r="X59" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="24:25">
       <c r="X60" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="24:25">
       <c r="X61" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="24:25">
       <c r="X63" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="24:24">
+      <c r="X71" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="24:24">
+      <c r="X72" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="24:24">
+      <c r="X73" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="24:24">
+      <c r="X74" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="24:24">
+      <c r="X75" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" spans="24:24">
+      <c r="X76" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="24:24">
+      <c r="X77" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvz16\Proyectos\salon_agenda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0D00D7-DE65-42F5-9249-81BBF120540D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F891A5-6C5D-493C-B431-C2C7E895D885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{7156CD1D-D3BB-44C2-9761-0A4246B0D336}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
   <si>
     <t>http://127.0.0.1:8000/reservar/</t>
   </si>
@@ -335,6 +335,24 @@
   </si>
   <si>
     <t>python -m pip install Pillow</t>
+  </si>
+  <si>
+    <t>.\.venv\Scripts\python.exe -V</t>
+  </si>
+  <si>
+    <t>where python</t>
+  </si>
+  <si>
+    <t>.\.venv\Scripts\python.exe -m pip install --upgrade pip wheel setuptools</t>
+  </si>
+  <si>
+    <t>.\.venv\Scripts\pip.exe uninstall -y psycopg psycopg-binary psycopg2 psycopg2-binary</t>
+  </si>
+  <si>
+    <t>git commit --allow-empty -m "trigger redeploy"</t>
+  </si>
+  <si>
+    <t>git push origin main</t>
   </si>
 </sst>
 </file>
@@ -774,40 +792,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CD43CF-C200-474D-8D07-6F8BDE2B25EE}">
-  <dimension ref="R2:AE77"/>
+  <dimension ref="R2:AL77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AL16" sqref="AL16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" spans="18:31">
+    <row r="2" spans="18:38">
       <c r="X2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="18:31">
+    <row r="3" spans="18:38">
       <c r="X3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="18:31">
+      <c r="AL3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="18:38">
       <c r="X4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="5" spans="18:31">
+      <c r="AL4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="18:38">
       <c r="X5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="6" spans="18:31">
+      <c r="AL5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="18:38">
       <c r="X6" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="7" spans="18:31">
+      <c r="AL6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="18:38">
       <c r="X7" t="s">
         <v>72</v>
       </c>
@@ -815,7 +845,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="18:31">
+    <row r="8" spans="18:38">
       <c r="R8" t="s">
         <v>1</v>
       </c>
@@ -826,7 +856,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="18:31">
+    <row r="9" spans="18:38">
       <c r="R9" t="s">
         <v>8</v>
       </c>
@@ -836,8 +866,11 @@
       <c r="AE9" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="18:31">
+      <c r="AL9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="18:38">
       <c r="R10" t="s">
         <v>2</v>
       </c>
@@ -847,8 +880,11 @@
       <c r="AE10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="18:31">
+      <c r="AL10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="18:38">
       <c r="R11" t="s">
         <v>3</v>
       </c>
@@ -859,7 +895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="18:31">
+    <row r="12" spans="18:38">
       <c r="R12" t="s">
         <v>7</v>
       </c>
@@ -867,25 +903,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="18:31">
+    <row r="13" spans="18:38">
       <c r="AE13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="18:31">
+      <c r="AL13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="18:38">
       <c r="X14" t="s">
         <v>11</v>
       </c>
       <c r="AE14" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="18:31">
+      <c r="AL14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="18:38">
       <c r="AE15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="18:31">
+    <row r="16" spans="18:38">
       <c r="AE16" t="s">
         <v>51</v>
       </c>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvz16\Proyectos\salon_agenda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F891A5-6C5D-493C-B431-C2C7E895D885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D504852-EB15-4AFF-B51F-FABE57BB5317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{7156CD1D-D3BB-44C2-9761-0A4246B0D336}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7156CD1D-D3BB-44C2-9761-0A4246B0D336}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>http://127.0.0.1:8000/reservar/</t>
   </si>
@@ -354,12 +354,51 @@
   <si>
     <t>git push origin main</t>
   </si>
+  <si>
+    <t>Clave aleatoria de 4 numeros o que mi esposa genere con cualquier extension</t>
+  </si>
+  <si>
+    <t>Que en admin haya una unica lista de promociones, y algunas puedan marcarse como Clientes VIP, y que esas sean las que se les muestren a los VIP</t>
+  </si>
+  <si>
+    <t>Quitemos botones de arriba a la derecha</t>
+  </si>
+  <si>
+    <t>Arreglar fotos de testimonios</t>
+  </si>
+  <si>
+    <t>No sirve el dropdown de seleccion de horarios</t>
+  </si>
+  <si>
+    <t>Agregar un main dropdown para tipo de servicio (cabello, spa)</t>
+  </si>
+  <si>
+    <t>Agregar otro dropdown para especificar el servicio</t>
+  </si>
+  <si>
+    <t>locamente</t>
+  </si>
+  <si>
+    <t>usuario nadira</t>
+  </si>
+  <si>
+    <t>clavenadira</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> clave en render</t>
+  </si>
+  <si>
+    <t>wendy, clave</t>
+  </si>
+  <si>
+    <t>joelky, clave</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,13 +419,26 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -401,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -409,6 +461,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -792,62 +845,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CD43CF-C200-474D-8D07-6F8BDE2B25EE}">
-  <dimension ref="R2:AL77"/>
+  <dimension ref="R2:AT77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AL16" sqref="AL16"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AT8" sqref="AT8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="18:38">
+    <row r="2" spans="18:46">
+      <c r="R2" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="X2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="18:38">
+      <c r="AT2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="18:46">
+      <c r="R3" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="X3" t="s">
         <v>10</v>
       </c>
       <c r="AL3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="18:38">
+      <c r="AT3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="18:46">
+      <c r="R4" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="X4" t="s">
         <v>69</v>
       </c>
       <c r="AL4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="18:38">
+      <c r="AT4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="18:46">
+      <c r="R5" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="X5" t="s">
         <v>70</v>
       </c>
       <c r="AL5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="6" spans="18:38">
+      <c r="AT5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="18:46">
+      <c r="R6" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="X6" t="s">
         <v>71</v>
       </c>
       <c r="AL6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="7" spans="18:38">
+      <c r="AT6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="18:46">
+      <c r="R7" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="X7" t="s">
         <v>72</v>
       </c>
       <c r="AE7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" spans="18:38">
-      <c r="R8" t="s">
-        <v>1</v>
+      <c r="AT7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="18:46">
+      <c r="R8" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="X8" t="s">
         <v>66</v>
@@ -856,10 +945,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="18:38">
-      <c r="R9" t="s">
-        <v>8</v>
-      </c>
+    <row r="9" spans="18:46">
       <c r="X9" t="s">
         <v>9</v>
       </c>
@@ -870,10 +956,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="18:38">
-      <c r="R10" t="s">
-        <v>2</v>
-      </c>
+    <row r="10" spans="18:46">
       <c r="X10" t="s">
         <v>10</v>
       </c>
@@ -884,10 +967,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="18:38">
-      <c r="R11" t="s">
-        <v>3</v>
-      </c>
+    <row r="11" spans="18:46">
       <c r="X11" t="s">
         <v>67</v>
       </c>
@@ -895,15 +975,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="18:38">
-      <c r="R12" t="s">
-        <v>7</v>
-      </c>
+    <row r="12" spans="18:46">
       <c r="AE12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="18:38">
+    <row r="13" spans="18:46">
       <c r="AE13" t="s">
         <v>4</v>
       </c>
@@ -911,7 +988,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="18:38">
+    <row r="14" spans="18:46">
       <c r="X14" t="s">
         <v>11</v>
       </c>
@@ -922,12 +999,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="18:38">
+    <row r="15" spans="18:46">
       <c r="AE15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="18:38">
+    <row r="16" spans="18:46">
       <c r="AE16" t="s">
         <v>51</v>
       </c>
@@ -938,9 +1015,6 @@
       </c>
     </row>
     <row r="18" spans="18:31">
-      <c r="R18" t="s">
-        <v>4</v>
-      </c>
       <c r="X18" t="s">
         <v>13</v>
       </c>
@@ -954,9 +1028,6 @@
       </c>
     </row>
     <row r="20" spans="18:31">
-      <c r="R20" t="s">
-        <v>5</v>
-      </c>
       <c r="X20" t="s">
         <v>15</v>
       </c>
@@ -965,9 +1036,6 @@
       </c>
     </row>
     <row r="22" spans="18:31">
-      <c r="R22" t="s">
-        <v>6</v>
-      </c>
       <c r="X22" t="s">
         <v>16</v>
       </c>
@@ -975,20 +1043,31 @@
         <v>54</v>
       </c>
     </row>
+    <row r="23" spans="18:31">
+      <c r="R23" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="24" spans="18:31">
       <c r="R24" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE24" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="25" spans="18:31">
+      <c r="R25" t="s">
+        <v>2</v>
+      </c>
       <c r="X25" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="18:31">
+      <c r="R26" t="s">
+        <v>3</v>
+      </c>
       <c r="X26" t="s">
         <v>3</v>
       </c>
@@ -996,7 +1075,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="18:31" ht="31.2">
+    <row r="27" spans="18:31">
+      <c r="R27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="18:31" ht="31.5">
       <c r="X28" s="1" t="s">
         <v>17</v>
       </c>
@@ -1028,13 +1112,16 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="24:31">
+    <row r="33" spans="18:31">
+      <c r="R33" t="s">
+        <v>4</v>
+      </c>
       <c r="X33" s="2"/>
       <c r="AE33" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="24:31">
+    <row r="34" spans="18:31">
       <c r="X34" s="2" t="s">
         <v>20</v>
       </c>
@@ -1042,23 +1129,29 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="24:31">
+    <row r="35" spans="18:31">
+      <c r="R35" t="s">
+        <v>5</v>
+      </c>
       <c r="X35" s="2"/>
       <c r="AE35" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="24:31">
+    <row r="36" spans="18:31">
       <c r="X36" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="24:31">
+    <row r="37" spans="18:31">
+      <c r="R37" t="s">
+        <v>6</v>
+      </c>
       <c r="AE37" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="24:31" ht="31.2">
+    <row r="38" spans="18:31" ht="31.5">
       <c r="X38" s="1" t="s">
         <v>22</v>
       </c>
@@ -1066,37 +1159,40 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="24:31">
+    <row r="39" spans="18:31">
+      <c r="R39" t="s">
+        <v>0</v>
+      </c>
       <c r="X39" s="2"/>
       <c r="AE39" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="24:31">
+    <row r="40" spans="18:31">
       <c r="X40" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="24:31">
+    <row r="41" spans="18:31">
       <c r="X41" s="2"/>
     </row>
-    <row r="42" spans="24:31">
+    <row r="42" spans="18:31">
       <c r="X42" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="24:31">
+    <row r="43" spans="18:31">
       <c r="X43" s="2"/>
     </row>
-    <row r="44" spans="24:31">
+    <row r="44" spans="18:31">
       <c r="X44" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="24:31">
+    <row r="45" spans="18:31">
       <c r="X45" s="2"/>
     </row>
-    <row r="46" spans="24:31">
+    <row r="46" spans="18:31">
       <c r="X46" s="2" t="s">
         <v>26</v>
       </c>
@@ -1204,6 +1300,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvz16\Proyectos\salon_agenda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D504852-EB15-4AFF-B51F-FABE57BB5317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009DB47D-CB88-4EE4-A5BE-623EC8754A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7156CD1D-D3BB-44C2-9761-0A4246B0D336}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="93">
   <si>
     <t>http://127.0.0.1:8000/reservar/</t>
   </si>
@@ -392,6 +392,9 @@
   </si>
   <si>
     <t>joelky, clave</t>
+  </si>
+  <si>
+    <t>Cambiar "© Salón Nadira" por " Centro de Belleza &amp; Spa Nadira Fashion"</t>
   </si>
 </sst>
 </file>
@@ -848,7 +851,7 @@
   <dimension ref="R2:AT77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AT8" sqref="AT8"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -946,6 +949,9 @@
       </c>
     </row>
     <row r="9" spans="18:46">
+      <c r="R9" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="X9" t="s">
         <v>9</v>
       </c>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvz16\Proyectos\salon_agenda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009DB47D-CB88-4EE4-A5BE-623EC8754A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A919411C-2B20-4F7B-823A-0FAEB5CEBCCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7156CD1D-D3BB-44C2-9761-0A4246B0D336}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="94">
   <si>
     <t>http://127.0.0.1:8000/reservar/</t>
   </si>
@@ -229,9 +229,6 @@
     <t>git add -A</t>
   </si>
   <si>
-    <t>git commit -m "Actualiza landing, servicios y testimonios"</t>
-  </si>
-  <si>
     <t>git push origin main   # o la rama que usa Render</t>
   </si>
   <si>
@@ -395,6 +392,12 @@
   </si>
   <si>
     <t>Cambiar "© Salón Nadira" por " Centro de Belleza &amp; Spa Nadira Fashion"</t>
+  </si>
+  <si>
+    <t>No PROMOS, si PAQUETES</t>
+  </si>
+  <si>
+    <t>git commit -m "Actualiza formato para Clientes VIP"</t>
   </si>
 </sst>
 </file>
@@ -850,119 +853,122 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CD43CF-C200-474D-8D07-6F8BDE2B25EE}">
   <dimension ref="R2:AT77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" topLeftCell="O28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AE56" sqref="AE56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="18:46">
       <c r="R2" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AT2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="18:46">
       <c r="R3" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X3" t="s">
         <v>10</v>
       </c>
       <c r="AL3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AT3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="18:46">
       <c r="R4" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AL4" t="s">
         <v>10</v>
       </c>
       <c r="AT4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="18:46">
       <c r="R5" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AL5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AT5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="18:46">
       <c r="R6" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AL6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AT6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="18:46">
       <c r="R7" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="18:46">
       <c r="R8" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AE8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="18:46">
       <c r="R9" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X9" t="s">
         <v>9</v>
       </c>
       <c r="AE9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AL9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="18:46">
+      <c r="R10" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="X10" t="s">
         <v>10</v>
       </c>
@@ -970,12 +976,12 @@
         <v>13</v>
       </c>
       <c r="AL10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="18:46">
       <c r="X11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AE11" t="s">
         <v>2</v>
@@ -991,7 +997,7 @@
         <v>4</v>
       </c>
       <c r="AL13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="18:46">
@@ -999,10 +1005,10 @@
         <v>11</v>
       </c>
       <c r="AE14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AL14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="18:46">
@@ -1012,7 +1018,7 @@
     </row>
     <row r="16" spans="18:46">
       <c r="AE16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="18:31">
@@ -1025,7 +1031,7 @@
         <v>13</v>
       </c>
       <c r="AE18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="18:31">
@@ -1038,7 +1044,7 @@
         <v>15</v>
       </c>
       <c r="AE20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="18:31">
@@ -1046,7 +1052,7 @@
         <v>16</v>
       </c>
       <c r="AE22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="18:31">
@@ -1059,7 +1065,7 @@
         <v>8</v>
       </c>
       <c r="AE24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="18:31">
@@ -1078,7 +1084,7 @@
         <v>3</v>
       </c>
       <c r="AE26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="18:31">
@@ -1093,7 +1099,7 @@
     </row>
     <row r="29" spans="18:31">
       <c r="X29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="18:31">
@@ -1101,13 +1107,13 @@
         <v>18</v>
       </c>
       <c r="AE30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="18:31">
       <c r="X31" s="2"/>
       <c r="AE31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="18:31">
@@ -1115,7 +1121,7 @@
         <v>19</v>
       </c>
       <c r="AE32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="18:31">
@@ -1124,7 +1130,7 @@
       </c>
       <c r="X33" s="2"/>
       <c r="AE33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="18:31">
@@ -1132,7 +1138,7 @@
         <v>20</v>
       </c>
       <c r="AE34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="18:31">
@@ -1141,7 +1147,7 @@
       </c>
       <c r="X35" s="2"/>
       <c r="AE35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="18:31">
@@ -1154,7 +1160,7 @@
         <v>6</v>
       </c>
       <c r="AE37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="18:31" ht="31.5">
@@ -1162,7 +1168,7 @@
         <v>22</v>
       </c>
       <c r="AE38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="18:31">
@@ -1171,7 +1177,7 @@
       </c>
       <c r="X39" s="2"/>
       <c r="AE39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="18:31">
@@ -1256,12 +1262,12 @@
     </row>
     <row r="60" spans="24:25">
       <c r="X60" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="24:25">
       <c r="X61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="24:25">
@@ -1271,37 +1277,37 @@
     </row>
     <row r="71" spans="24:24">
       <c r="X71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="24:24">
       <c r="X72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="24:24">
       <c r="X73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="24:24">
       <c r="X74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75" spans="24:24">
       <c r="X75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" spans="24:24">
       <c r="X76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" spans="24:24">
       <c r="X77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvz16\Proyectos\salon_agenda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A919411C-2B20-4F7B-823A-0FAEB5CEBCCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D27F1D-B7D5-4BA7-A954-D80E88B6B118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7156CD1D-D3BB-44C2-9761-0A4246B0D336}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{7156CD1D-D3BB-44C2-9761-0A4246B0D336}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,7 +397,7 @@
     <t>No PROMOS, si PAQUETES</t>
   </si>
   <si>
-    <t>git commit -m "Actualiza formato para Clientes VIP"</t>
+    <t>git commit -m "Actualiza Testimonio size"</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>515419</xdr:colOff>
+      <xdr:colOff>521134</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>148385</xdr:rowOff>
     </xdr:to>
@@ -853,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CD43CF-C200-474D-8D07-6F8BDE2B25EE}">
   <dimension ref="R2:AT77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AE56" sqref="AE56"/>
+    <sheetView tabSelected="1" topLeftCell="N10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvz16\Proyectos\salon_agenda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D27F1D-B7D5-4BA7-A954-D80E88B6B118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EA4328-43C5-4BF8-92B3-5DDD89933689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{7156CD1D-D3BB-44C2-9761-0A4246B0D336}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7156CD1D-D3BB-44C2-9761-0A4246B0D336}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
   <si>
     <t>http://127.0.0.1:8000/reservar/</t>
   </si>
@@ -352,21 +352,6 @@
     <t>git push origin main</t>
   </si>
   <si>
-    <t>Clave aleatoria de 4 numeros o que mi esposa genere con cualquier extension</t>
-  </si>
-  <si>
-    <t>Que en admin haya una unica lista de promociones, y algunas puedan marcarse como Clientes VIP, y que esas sean las que se les muestren a los VIP</t>
-  </si>
-  <si>
-    <t>Quitemos botones de arriba a la derecha</t>
-  </si>
-  <si>
-    <t>Arreglar fotos de testimonios</t>
-  </si>
-  <si>
-    <t>No sirve el dropdown de seleccion de horarios</t>
-  </si>
-  <si>
     <t>Agregar un main dropdown para tipo de servicio (cabello, spa)</t>
   </si>
   <si>
@@ -391,20 +376,20 @@
     <t>joelky, clave</t>
   </si>
   <si>
-    <t>Cambiar "© Salón Nadira" por " Centro de Belleza &amp; Spa Nadira Fashion"</t>
-  </si>
-  <si>
-    <t>No PROMOS, si PAQUETES</t>
-  </si>
-  <si>
-    <t>git commit -m "Actualiza Testimonio size"</t>
+    <t>git commit -m "Icono whatsapp"</t>
+  </si>
+  <si>
+    <t>Tamaño de las fotos-imagenes</t>
+  </si>
+  <si>
+    <t>"Otros" en Servicios siempre abajo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,6 +413,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -456,10 +449,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -468,8 +462,11 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -490,13 +487,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>175260</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>521134</xdr:colOff>
+      <xdr:colOff>528754</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>148385</xdr:rowOff>
     </xdr:to>
@@ -521,8 +518,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1390650" y="419100"/>
-          <a:ext cx="7659169" cy="5363323"/>
+          <a:off x="1394460" y="441960"/>
+          <a:ext cx="7668694" cy="5630975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -851,224 +848,218 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CD43CF-C200-474D-8D07-6F8BDE2B25EE}">
-  <dimension ref="R2:AT77"/>
+  <dimension ref="R2:BA77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R35" sqref="R35"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="18:46">
-      <c r="R2" s="3" t="s">
-        <v>78</v>
-      </c>
+    <row r="2" spans="18:53">
       <c r="X2" t="s">
         <v>67</v>
       </c>
-      <c r="AT2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="18:46">
-      <c r="R3" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="BA2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="18:53">
       <c r="X3" t="s">
         <v>10</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AS3" t="s">
         <v>67</v>
       </c>
-      <c r="AT3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="18:46">
-      <c r="R4" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="BA3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="18:53">
       <c r="X4" t="s">
         <v>68</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AS4" t="s">
         <v>10</v>
       </c>
-      <c r="AT4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="18:46">
-      <c r="R5" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="BA4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="18:53">
       <c r="X5" t="s">
         <v>69</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AS5" t="s">
         <v>72</v>
       </c>
-      <c r="AT5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="18:46">
+      <c r="BA5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="18:53">
       <c r="R6" s="3" t="s">
-        <v>82</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
       <c r="X6" t="s">
         <v>70</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AS6" t="s">
         <v>73</v>
       </c>
-      <c r="AT6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="18:46">
+      <c r="BA6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="18:53">
       <c r="R7" s="3" t="s">
-        <v>83</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
       <c r="X7" t="s">
         <v>71</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AL7" t="s">
         <v>46</v>
       </c>
-      <c r="AT7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="18:46">
+      <c r="BA7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="18:53">
       <c r="R8" s="3" t="s">
-        <v>84</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
       <c r="X8" t="s">
         <v>65</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AL8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="18:46">
+    <row r="9" spans="18:53">
       <c r="R9" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="X9" t="s">
         <v>9</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AL9" t="s">
         <v>48</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AS9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="18:46">
-      <c r="R10" s="3" t="s">
-        <v>92</v>
-      </c>
+    <row r="10" spans="18:53">
       <c r="X10" t="s">
         <v>10</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AL10" t="s">
         <v>13</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AS10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="18:46">
+    <row r="11" spans="18:53">
       <c r="X11" t="s">
         <v>66</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AL11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="18:46">
-      <c r="AE12" t="s">
+    <row r="12" spans="18:53">
+      <c r="AL12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="18:46">
-      <c r="AE13" t="s">
+    <row r="13" spans="18:53">
+      <c r="AL13" t="s">
         <v>4</v>
       </c>
-      <c r="AL13" t="s">
+      <c r="AS13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="18:46">
+    <row r="14" spans="18:53">
       <c r="X14" t="s">
         <v>11</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AL14" t="s">
         <v>49</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AS14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="18:46">
-      <c r="AE15" t="s">
+    <row r="15" spans="18:53">
+      <c r="AL15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="18:46">
-      <c r="AE16" t="s">
+    <row r="16" spans="18:53">
+      <c r="AL16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="18:31">
+    <row r="17" spans="18:38">
       <c r="X17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="18:31">
+    <row r="18" spans="18:38">
       <c r="X18" t="s">
         <v>13</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AL18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="18:31">
+    <row r="19" spans="18:38">
       <c r="X19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="18:31">
+    <row r="20" spans="18:38">
       <c r="X20" t="s">
         <v>15</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AL20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="18:31">
+    <row r="22" spans="18:38">
       <c r="X22" t="s">
         <v>16</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AL22" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="18:31">
+    <row r="23" spans="18:38">
       <c r="R23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="18:31">
+    <row r="24" spans="18:38">
       <c r="R24" t="s">
         <v>8</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AL24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="18:31">
+    <row r="25" spans="18:38">
       <c r="R25" t="s">
         <v>2</v>
       </c>
@@ -1076,135 +1067,135 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="18:31">
+    <row r="26" spans="18:38">
       <c r="R26" t="s">
         <v>3</v>
       </c>
       <c r="X26" t="s">
         <v>3</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AL26" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="18:31">
+    <row r="27" spans="18:38">
       <c r="R27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="18:31" ht="31.5">
+    <row r="28" spans="18:38" ht="31.5">
       <c r="X28" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="18:31">
+    <row r="29" spans="18:38">
       <c r="X29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="18:31">
+    <row r="30" spans="18:38">
       <c r="X30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AE30" t="s">
+      <c r="AL30" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="18:31">
+    <row r="31" spans="18:38">
       <c r="X31" s="2"/>
-      <c r="AE31" t="s">
+      <c r="AL31" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="18:31">
+    <row r="32" spans="18:38">
       <c r="X32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AE32" t="s">
+      <c r="AL32" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="18:31">
+    <row r="33" spans="18:38">
       <c r="R33" t="s">
         <v>4</v>
       </c>
       <c r="X33" s="2"/>
-      <c r="AE33" t="s">
+      <c r="AL33" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="18:31">
+    <row r="34" spans="18:38">
       <c r="X34" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AE34" t="s">
+      <c r="AL34" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="18:31">
+    <row r="35" spans="18:38">
       <c r="R35" t="s">
         <v>5</v>
       </c>
       <c r="X35" s="2"/>
-      <c r="AE35" t="s">
+      <c r="AL35" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="18:31">
+    <row r="36" spans="18:38">
       <c r="X36" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="18:31">
+    <row r="37" spans="18:38">
       <c r="R37" t="s">
         <v>6</v>
       </c>
-      <c r="AE37" t="s">
+      <c r="AL37" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="18:31" ht="31.5">
+    <row r="38" spans="18:38" ht="31.5">
       <c r="X38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AE38" t="s">
+      <c r="AL38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="18:31">
-      <c r="R39" t="s">
+    <row r="39" spans="18:38">
+      <c r="R39" s="4" t="s">
         <v>0</v>
       </c>
       <c r="X39" s="2"/>
-      <c r="AE39" t="s">
+      <c r="AL39" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="18:31">
+    <row r="40" spans="18:38">
       <c r="X40" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="18:31">
+    <row r="41" spans="18:38">
       <c r="X41" s="2"/>
     </row>
-    <row r="42" spans="18:31">
+    <row r="42" spans="18:38">
       <c r="X42" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="18:31">
+    <row r="43" spans="18:38">
       <c r="X43" s="2"/>
     </row>
-    <row r="44" spans="18:31">
+    <row r="44" spans="18:38">
       <c r="X44" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="18:31">
+    <row r="45" spans="18:38">
       <c r="X45" s="2"/>
     </row>
-    <row r="46" spans="18:31">
+    <row r="46" spans="18:38">
       <c r="X46" s="2" t="s">
         <v>26</v>
       </c>
@@ -1262,7 +1253,7 @@
     </row>
     <row r="60" spans="24:25">
       <c r="X60" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="24:25">
@@ -1311,8 +1302,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="R39" r:id="rId1" xr:uid="{9C3E512A-7578-40DF-B9BE-12D578764726}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvz16\Proyectos\salon_agenda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EA4328-43C5-4BF8-92B3-5DDD89933689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEDB552-89C1-452C-BFF4-3CFAFC807F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7156CD1D-D3BB-44C2-9761-0A4246B0D336}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
   <si>
     <t>http://127.0.0.1:8000/reservar/</t>
   </si>
@@ -376,13 +376,10 @@
     <t>joelky, clave</t>
   </si>
   <si>
-    <t>git commit -m "Icono whatsapp"</t>
-  </si>
-  <si>
     <t>Tamaño de las fotos-imagenes</t>
   </si>
   <si>
-    <t>"Otros" en Servicios siempre abajo</t>
+    <t>git commit -m "Updates"</t>
   </si>
 </sst>
 </file>
@@ -850,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CD43CF-C200-474D-8D07-6F8BDE2B25EE}">
   <dimension ref="R2:BA77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="G28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -899,7 +896,7 @@
     </row>
     <row r="6" spans="18:53">
       <c r="R6" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
@@ -946,9 +943,6 @@
       </c>
     </row>
     <row r="9" spans="18:53">
-      <c r="R9" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="X9" t="s">
         <v>9</v>
       </c>
@@ -1253,7 +1247,7 @@
     </row>
     <row r="60" spans="24:25">
       <c r="X60" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="24:25">

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvz16\Proyectos\salon_agenda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEDB552-89C1-452C-BFF4-3CFAFC807F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42159345-7657-4050-A808-561DFDF1C89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7156CD1D-D3BB-44C2-9761-0A4246B0D336}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{7156CD1D-D3BB-44C2-9761-0A4246B0D336}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="91">
   <si>
     <t>http://127.0.0.1:8000/reservar/</t>
   </si>
@@ -379,7 +379,16 @@
     <t>Tamaño de las fotos-imagenes</t>
   </si>
   <si>
-    <t>git commit -m "Updates"</t>
+    <t>pip install cloudinary django-cloudinary-storage</t>
+  </si>
+  <si>
+    <t>python -m pip install cloudinary django-cloudinary-storage</t>
+  </si>
+  <si>
+    <t>python -m pip freeze &gt; requirements.txt</t>
+  </si>
+  <si>
+    <t>git commit -m "Background photo.py"</t>
   </si>
 </sst>
 </file>
@@ -847,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CD43CF-C200-474D-8D07-6F8BDE2B25EE}">
   <dimension ref="R2:BA77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P50" sqref="P50"/>
+    <sheetView tabSelected="1" topLeftCell="L35" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AJ39" sqref="AJ39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -857,6 +866,9 @@
       <c r="X2" t="s">
         <v>67</v>
       </c>
+      <c r="AL2" t="s">
+        <v>87</v>
+      </c>
       <c r="BA2" t="s">
         <v>80</v>
       </c>
@@ -865,6 +877,9 @@
       <c r="X3" t="s">
         <v>10</v>
       </c>
+      <c r="AL3" t="s">
+        <v>88</v>
+      </c>
       <c r="AS3" t="s">
         <v>67</v>
       </c>
@@ -875,6 +890,9 @@
     <row r="4" spans="18:53">
       <c r="X4" t="s">
         <v>68</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>89</v>
       </c>
       <c r="AS4" t="s">
         <v>10</v>
@@ -1247,7 +1265,7 @@
     </row>
     <row r="60" spans="24:25">
       <c r="X60" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="24:25">
